--- a/defn/defn.xlsx
+++ b/defn/defn.xlsx
@@ -1093,13 +1093,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="10.8181818181818" customWidth="1"/>
     <col min="4" max="4" width="16.2727272727273" customWidth="1"/>
@@ -1165,6 +1165,26 @@
       </c>
       <c r="F3" s="5">
         <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1177,35 +1197,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
